--- a/API/static/excel-templates/TEMP_IMPORT_SALARY.xlsx
+++ b/API/static/excel-templates/TEMP_IMPORT_SALARY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\COMPANY_CODE\VNS\Back_end\API\static\excel-templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Veam\VEAM\API\static\excel-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77670906-5EA4-4DD5-8962-8AF2D5A9D344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113D1B8E-3B3F-4BB4-A278-C712FF44AD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -457,20 +457,20 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="21.140625" style="8" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="34.140625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="10.28515625" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="21.109375" style="8" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="34.109375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10.33203125" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -490,7 +490,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -512,7 +512,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -534,7 +534,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>

--- a/API/static/excel-templates/TEMP_IMPORT_SALARY.xlsx
+++ b/API/static/excel-templates/TEMP_IMPORT_SALARY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Veam\VEAM\API\static\excel-templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\COMPANY_CODE\VNS\Back_end\API\static\excel-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113D1B8E-3B3F-4BB4-A278-C712FF44AD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77670906-5EA4-4DD5-8962-8AF2D5A9D344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -457,20 +457,20 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.109375" style="8" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.88671875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="34.109375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="10.33203125" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="2" width="21.140625" style="8" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="34.140625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10.28515625" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -490,7 +490,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -512,7 +512,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -534,7 +534,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
